--- a/Peter/Arbeitszeitabellte.xlsx
+++ b/Peter/Arbeitszeitabellte.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A501EA-9F4E-46F1-878B-690FE57B7238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr showObjects="none" filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9223ED09-168F-4438-9312-5EA25510EB2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t>Motion caprure Kinect</t>
+  </si>
+  <si>
+    <t>Code changes to track the position of youre biceps</t>
+  </si>
+  <si>
+    <t>Marktanalyse Inmoov Poppy ASPIR</t>
+  </si>
+  <si>
+    <t>Einrichten eines GitRepos zur Arbeitserleichterung</t>
+  </si>
+  <si>
+    <t>Besprechung über die am Markt gebotenen Platformen mit T. Schachner</t>
+  </si>
+  <si>
+    <t>Gedanken dauerhafte anzeige für wichtige armpositionen entweder mit eigener Gui oder in MRL unter pyton. Zähler soll erst ab einer gewissen Änderung (vllt pro zeit aber weis noch nicht genau) wird diese überschritten löst ein zähler aus.</t>
   </si>
 </sst>
 </file>
@@ -246,8 +261,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,20 +540,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.5546875" customWidth="1"/>
     <col min="2" max="2" width="33.77734375" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.44140625" customWidth="1"/>
+    <col min="6" max="6" width="53.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43288</v>
       </c>
@@ -559,8 +576,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>43289</v>
       </c>
@@ -570,8 +590,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>43294</v>
       </c>
@@ -581,8 +604,11 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>43343</v>
       </c>
@@ -592,8 +618,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>43363</v>
       </c>
@@ -603,8 +632,11 @@
       <c r="C6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>43370</v>
       </c>
@@ -614,8 +646,11 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>43371</v>
       </c>
@@ -625,8 +660,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>43380</v>
       </c>
@@ -637,7 +675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>43382</v>
       </c>
@@ -648,7 +686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>43385</v>
       </c>
@@ -659,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>43389</v>
       </c>
@@ -670,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>43390</v>
       </c>
@@ -681,7 +719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>43397</v>
       </c>
@@ -692,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>43403</v>
       </c>
@@ -703,7 +741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>43408</v>
       </c>
@@ -890,7 +928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>43107</v>
       </c>
@@ -901,7 +939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>43478</v>
       </c>
@@ -912,7 +950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>43479</v>
       </c>
@@ -923,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>43480</v>
       </c>
@@ -934,7 +972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>43482</v>
       </c>
@@ -945,7 +983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>43483</v>
       </c>
@@ -956,7 +994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>43493</v>
       </c>
@@ -967,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>43495</v>
       </c>
@@ -978,7 +1016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>43496</v>
       </c>
@@ -989,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>43471</v>
       </c>
@@ -1000,10 +1038,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C44">
-        <f>SUM(C2:C42)</f>
-        <v>92</v>
+    <row r="43" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>43511</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
